--- a/thesis-binary-relevance/Binary-Transformation-Results.xlsx
+++ b/thesis-binary-relevance/Binary-Transformation-Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lucene" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="77">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -103,6 +103,51 @@
   </si>
   <si>
     <t xml:space="preserve">CV + tfidf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0.54 0.24 0.01 0.54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0.78 0.84 0.5 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0.41 0.14 0.01 0.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 0.33 0.07 0 0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6 0.8 0.78 0 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 0.21 0.04 0 0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 0.61 0.49 0.13 0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 0.7 0.64 0.35 0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 0.53 0.39 0.08 0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 0.51 0.45 0.29 0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 0.55 0.43 0.34 0.65 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 0.48 0.48 0.26 0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 0.44 0.34 0.04 0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0.72 0.58 0.75 0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 0.31 0.24 0.02 0.53</t>
   </si>
   <si>
     <t xml:space="preserve">CV + tfidf + ngram(1)</t>
@@ -310,8 +355,8 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -432,9 +477,15 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -443,9 +494,15 @@
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -454,9 +511,15 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -465,9 +528,15 @@
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -476,16 +545,22 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -496,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -507,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -518,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -529,7 +604,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -540,7 +615,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -551,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -562,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -573,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -584,7 +659,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -595,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -606,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -617,7 +692,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -628,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -639,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -650,7 +725,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -661,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -672,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -683,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -694,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -705,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -716,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -727,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -738,7 +813,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -749,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -812,13 +887,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +904,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,13 +921,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,13 +938,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,7 +1024,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -960,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -971,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -982,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -993,7 +1068,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1004,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1015,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1026,7 +1101,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1037,7 +1112,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1048,7 +1123,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1059,7 +1134,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1070,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1081,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1092,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1103,7 +1178,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1114,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1125,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1136,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1147,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1158,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1169,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1180,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1191,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1202,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1213,7 +1288,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1237,8 +1312,8 @@
   </sheetPr>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1275,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,13 +1367,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,13 +1384,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,13 +1401,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,13 +1418,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,9 +1434,6 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -1370,9 +1442,6 @@
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1381,9 +1450,6 @@
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1412,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1423,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1434,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1445,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1456,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1467,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1478,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1489,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1500,7 +1566,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1511,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1522,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1533,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1544,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1555,7 +1621,7 @@
         <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1566,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1577,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1588,7 +1654,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1599,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1610,7 +1676,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1621,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1632,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1643,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1654,7 +1720,7 @@
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1665,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1676,7 +1742,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
